--- a/motmos_zd/Справочники/ЗадачиNew.xlsx
+++ b/motmos_zd/Справочники/ЗадачиNew.xlsx
@@ -373,7 +373,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -383,6 +383,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -425,7 +431,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -445,6 +451,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -728,8 +744,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -799,90 +815,94 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="12" t="s">
         <v>24</v>
       </c>
+      <c r="C8" s="10"/>
     </row>
     <row r="9" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="12" t="s">
         <v>27</v>
       </c>
+      <c r="C9" s="10"/>
     </row>
     <row r="10" spans="1:3" ht="144" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="12" t="s">
         <v>30</v>
       </c>
+      <c r="C10" s="10"/>
     </row>
     <row r="11" spans="1:3" ht="144" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="12" t="s">
         <v>30</v>
       </c>
+      <c r="C11" s="10"/>
     </row>
     <row r="12" spans="1:3" ht="144" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="12" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="12" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="144" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="12" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="144" x14ac:dyDescent="0.3">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="12" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="12" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="12" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="144" x14ac:dyDescent="0.3">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="12" t="s">
         <v>39</v>
       </c>
     </row>
